--- a/Soil Teating.xlsx
+++ b/Soil Teating.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Sand</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Depth 2</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -461,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +494,9 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -514,9 +520,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B2,Sheet1!$A2)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="str">
+        <f ca="1">IF(AND(E2&gt;0.8,D2&lt;0.2,F2&lt;0.12),"SILT",IF(AND(E2&gt;0.5,D2&lt;0.5,F2&lt;0.28),"SILTY LOAM",IF(AND(E2&lt;0.1,D2&gt;0.86,F2&lt;0.1),"SAND",IF(AND(E2&lt;0.25,D2&gt;0.74,F2&lt;0.15),"LOAMY SAND",IF(AND(E2&lt;0.4,D2&gt;0.45,F2&gt;0.4),"CLAY",IF(AND(E2&lt;0.2,D2&gt;0.45,F2&gt;0.35),"SANDY CLAY", IF(AND(E2&lt;0.28,D2&gt;0.45,F2&gt;0.2),"SANDY LOAM", IF(AND(E2&gt;0.15,D2&gt;0.48,F2&gt;0.28),"CLAY LOAM",IF(AND(E2&gt;0.27,D2&gt;0.5,F2&lt;0.28),"MEDIUM LOAM",IF(AND(E2&lt;0.5,D2&gt;0.45,F2&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
+        <v>SANDY LOAM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -538,8 +547,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B3,Sheet1!$A3)</f>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G66" ca="1" si="0">IF(AND(E3&gt;0.8,D3&lt;0.2,F3&lt;0.12),"SILT",IF(AND(E3&gt;0.5,D3&lt;0.5,F3&lt;0.28),"SILTY LOAM",IF(AND(E3&lt;0.1,D3&gt;0.86,F3&lt;0.1),"SAND",IF(AND(E3&lt;0.25,D3&gt;0.74,F3&lt;0.15),"LOAMY SAND",IF(AND(E3&lt;0.4,D3&gt;0.45,F3&gt;0.4),"CLAY",IF(AND(E3&lt;0.2,D3&gt;0.45,F3&gt;0.35),"SANDY CLAY", IF(AND(E3&lt;0.28,D3&gt;0.45,F3&gt;0.2),"SANDY LOAM", IF(AND(E3&gt;0.15,D3&gt;0.48,F3&gt;0.28),"CLAY LOAM",IF(AND(E3&gt;0.27,D3&gt;0.5,F3&lt;0.28),"MEDIUM LOAM",IF(AND(E3&lt;0.5,D3&gt;0.45,F3&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
+        <v>SANDY LOAM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -561,8 +574,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B4,Sheet1!$A4)</f>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -578,14 +595,18 @@
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B5,Sheet1!$A5)</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B5,Sheet1!$A5)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -601,14 +622,18 @@
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B6,Sheet1!$A6)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B6,Sheet1!$A6)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -624,14 +649,18 @@
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B7,Sheet1!$A7)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B7,Sheet1!$A7)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SILTY LOAM</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -647,14 +676,18 @@
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B8,Sheet1!$A8)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B8,Sheet1!$A8)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SILTY LOAM</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -670,14 +703,18 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B9,Sheet1!$A9)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B9,Sheet1!$A9)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SANDY LOAM</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -693,14 +730,18 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B10,Sheet1!$A10)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B10,Sheet1!$A10)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SANDY LOAM</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -716,14 +757,18 @@
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B11,Sheet1!$A11)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B11,Sheet1!$A11)</f>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -739,14 +784,18 @@
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B12,Sheet1!$A12)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B12,Sheet1!$A12)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -762,14 +811,18 @@
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B13,Sheet1!$A13)</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B13,Sheet1!$A13)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -791,8 +844,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B14,Sheet1!$A14)</f>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -814,8 +871,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B15,Sheet1!$A15)</f>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -831,14 +892,18 @@
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B16,Sheet1!$A16)</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B16,Sheet1!$A16)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -854,14 +919,18 @@
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B17,Sheet1!$A17)</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B17,Sheet1!$A17)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -877,14 +946,18 @@
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B18,Sheet1!$A18)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B18,Sheet1!$A18)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -900,14 +973,18 @@
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B19,Sheet1!$A19)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B19,Sheet1!$A19)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -923,14 +1000,18 @@
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B20,Sheet1!$A20)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B20,Sheet1!$A20)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G20" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -946,14 +1027,18 @@
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B21,Sheet1!$A21)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B21,Sheet1!$A21)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -975,8 +1060,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B22,Sheet1!$A22)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -992,14 +1081,18 @@
       </c>
       <c r="E23" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B23,Sheet1!$A23)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B23,Sheet1!$A23)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1015,14 +1108,18 @@
       </c>
       <c r="E24" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B24,Sheet1!$A24)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B24,Sheet1!$A24)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1038,14 +1135,18 @@
       </c>
       <c r="E25" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B25,Sheet1!$A25)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B25,Sheet1!$A25)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1061,14 +1162,18 @@
       </c>
       <c r="E26" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B26,Sheet1!$A26)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B26,Sheet1!$A26)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1090,8 +1195,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B27,Sheet1!$A27)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1107,14 +1216,18 @@
       </c>
       <c r="E28" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B28,Sheet1!$A28)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B28,Sheet1!$A28)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -1130,14 +1243,18 @@
       </c>
       <c r="E29" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B29,Sheet1!$A29)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B29,Sheet1!$A29)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1153,14 +1270,18 @@
       </c>
       <c r="E30" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B30,Sheet1!$A30)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B30,Sheet1!$A30)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1176,14 +1297,18 @@
       </c>
       <c r="E31" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B31,Sheet1!$A31)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B31,Sheet1!$A31)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1199,14 +1324,18 @@
       </c>
       <c r="E32" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B32,Sheet1!$A32)</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B32,Sheet1!$A32)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1228,8 +1357,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B33,Sheet1!$A33)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -1251,8 +1384,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B34,Sheet1!$A34)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -1268,14 +1405,18 @@
       </c>
       <c r="E35" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B35,Sheet1!$A35)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B35,Sheet1!$A35)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1291,14 +1432,18 @@
       </c>
       <c r="E36" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$2")),Sheet1!$B36,Sheet1!$A36)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F36" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$2")),Sheet1!$B36,Sheet1!$A36)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1320,8 +1465,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B37,Sheet1!$A37)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1343,8 +1492,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B38,Sheet1!$A38)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1366,8 +1519,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B39,Sheet1!$A39)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1389,8 +1546,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B40,Sheet1!$A40)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1412,8 +1573,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B41,Sheet1!$A41)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1435,8 +1600,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B42,Sheet1!$A42)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -1458,8 +1627,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B43,Sheet1!$A43)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1481,8 +1654,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B44,Sheet1!$A44)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1504,8 +1681,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B45,Sheet1!$A45)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -1527,8 +1708,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B46,Sheet1!$A46)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -1550,8 +1735,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B47,Sheet1!$A47)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -1573,8 +1762,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B48,Sheet1!$A48)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -1596,8 +1789,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B49,Sheet1!$A49)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7</v>
       </c>
@@ -1619,8 +1816,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B50,Sheet1!$A50)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -1642,8 +1843,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B51,Sheet1!$A51)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1665,8 +1870,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B52,Sheet1!$A52)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1688,8 +1897,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B53,Sheet1!$A53)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -1711,8 +1924,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B54,Sheet1!$A54)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -1734,8 +1951,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B55,Sheet1!$A55)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6</v>
       </c>
@@ -1757,8 +1978,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B56,Sheet1!$A56)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7</v>
       </c>
@@ -1780,8 +2005,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B57,Sheet1!$A57)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -1803,8 +2032,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B58,Sheet1!$A58)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1826,8 +2059,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B59,Sheet1!$A59)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -1849,8 +2086,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B60,Sheet1!$A60)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -1872,8 +2113,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B61,Sheet1!$A61)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -1895,8 +2140,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B62,Sheet1!$A62)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>6</v>
       </c>
@@ -1918,8 +2167,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B63,Sheet1!$A63)</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -1941,8 +2194,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B64,Sheet1!$A64)</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -1964,8 +2221,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B65,Sheet1!$A65)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1987,8 +2248,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B66,Sheet1!$A66)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -2010,8 +2275,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B67,Sheet1!$A67)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="9" t="str">
+        <f t="shared" ref="G67:G106" ca="1" si="1">IF(AND(E67&gt;0.8,D67&lt;0.2,F67&lt;0.12),"SILT",IF(AND(E67&gt;0.5,D67&lt;0.5,F67&lt;0.28),"SILTY LOAM",IF(AND(E67&lt;0.1,D67&gt;0.86,F67&lt;0.1),"SAND",IF(AND(E67&lt;0.25,D67&gt;0.74,F67&lt;0.15),"LOAMY SAND",IF(AND(E67&lt;0.4,D67&gt;0.45,F67&gt;0.4),"CLAY",IF(AND(E67&lt;0.2,D67&gt;0.45,F67&gt;0.35),"SANDY CLAY", IF(AND(E67&lt;0.28,D67&gt;0.45,F67&gt;0.2),"SANDY LOAM", IF(AND(E67&gt;0.15,D67&gt;0.48,F67&gt;0.28),"CLAY LOAM",IF(AND(E67&gt;0.27,D67&gt;0.5,F67&lt;0.28),"MEDIUM LOAM",IF(AND(E67&lt;0.5,D67&gt;0.45,F67&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -2033,8 +2302,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B68,Sheet1!$A68)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -2056,8 +2329,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B69,Sheet1!$A69)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -2079,8 +2356,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B70,Sheet1!$A70)</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>7</v>
       </c>
@@ -2102,8 +2383,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$18")),Sheet1!$B71,Sheet1!$A71)</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -2115,7 +2400,7 @@
       </c>
       <c r="D72" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B72,Sheet1!$A72)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E72" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B72,Sheet1!$A72)</f>
@@ -2123,10 +2408,14 @@
       </c>
       <c r="F72" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B72,Sheet1!$A72)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G72" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -2138,7 +2427,7 @@
       </c>
       <c r="D73" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B73,Sheet1!$A73)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E73" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B73,Sheet1!$A73)</f>
@@ -2146,10 +2435,14 @@
       </c>
       <c r="F73" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B73,Sheet1!$A73)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="G73" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -2161,7 +2454,7 @@
       </c>
       <c r="D74" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B74,Sheet1!$A74)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E74" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B74,Sheet1!$A74)</f>
@@ -2169,10 +2462,14 @@
       </c>
       <c r="F74" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B74,Sheet1!$A74)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G74" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -2184,7 +2481,7 @@
       </c>
       <c r="D75" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B75,Sheet1!$A75)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E75" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B75,Sheet1!$A75)</f>
@@ -2192,10 +2489,14 @@
       </c>
       <c r="F75" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B75,Sheet1!$A75)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G75" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>5</v>
       </c>
@@ -2207,7 +2508,7 @@
       </c>
       <c r="D76" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B76,Sheet1!$A76)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E76" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B76,Sheet1!$A76)</f>
@@ -2215,10 +2516,14 @@
       </c>
       <c r="F76" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B76,Sheet1!$A76)</f>
-        <v>0.57000000000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G76" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6</v>
       </c>
@@ -2230,7 +2535,7 @@
       </c>
       <c r="D77" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B77,Sheet1!$A77)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E77" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B77,Sheet1!$A77)</f>
@@ -2238,10 +2543,14 @@
       </c>
       <c r="F77" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B77,Sheet1!$A77)</f>
-        <v>0.57000000000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G77" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -2253,7 +2562,7 @@
       </c>
       <c r="D78" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B78,Sheet1!$A78)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E78" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B78,Sheet1!$A78)</f>
@@ -2261,10 +2570,14 @@
       </c>
       <c r="F78" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B78,Sheet1!$A78)</f>
-        <v>0.57000000000000006</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G78" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -2276,7 +2589,7 @@
       </c>
       <c r="D79" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B79,Sheet1!$A79)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E79" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B79,Sheet1!$A79)</f>
@@ -2284,10 +2597,14 @@
       </c>
       <c r="F79" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B79,Sheet1!$A79)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+      <c r="G79" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -2299,7 +2616,7 @@
       </c>
       <c r="D80" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B80,Sheet1!$A80)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E80" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B80,Sheet1!$A80)</f>
@@ -2307,10 +2624,14 @@
       </c>
       <c r="F80" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B80,Sheet1!$A80)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G80" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -2322,7 +2643,7 @@
       </c>
       <c r="D81" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B81,Sheet1!$A81)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E81" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B81,Sheet1!$A81)</f>
@@ -2330,10 +2651,14 @@
       </c>
       <c r="F81" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B81,Sheet1!$A81)</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G81" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -2345,7 +2670,7 @@
       </c>
       <c r="D82" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B82,Sheet1!$A82)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E82" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B82,Sheet1!$A82)</f>
@@ -2353,10 +2678,14 @@
       </c>
       <c r="F82" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B82,Sheet1!$A82)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -2368,7 +2697,7 @@
       </c>
       <c r="D83" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B83,Sheet1!$A83)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E83" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B83,Sheet1!$A83)</f>
@@ -2376,10 +2705,14 @@
       </c>
       <c r="F83" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B83,Sheet1!$A83)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -2391,7 +2724,7 @@
       </c>
       <c r="D84" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B84,Sheet1!$A84)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E84" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B84,Sheet1!$A84)</f>
@@ -2399,10 +2732,14 @@
       </c>
       <c r="F84" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B84,Sheet1!$A84)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -2414,7 +2751,7 @@
       </c>
       <c r="D85" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B85,Sheet1!$A85)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E85" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B85,Sheet1!$A85)</f>
@@ -2422,10 +2759,14 @@
       </c>
       <c r="F85" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B85,Sheet1!$A85)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -2437,7 +2778,7 @@
       </c>
       <c r="D86" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B86,Sheet1!$A86)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E86" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B86,Sheet1!$A86)</f>
@@ -2445,10 +2786,14 @@
       </c>
       <c r="F86" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B86,Sheet1!$A86)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+      <c r="G86" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -2460,7 +2805,7 @@
       </c>
       <c r="D87" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B87,Sheet1!$A87)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E87" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B87,Sheet1!$A87)</f>
@@ -2468,10 +2813,14 @@
       </c>
       <c r="F87" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B87,Sheet1!$A87)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G87" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -2483,7 +2832,7 @@
       </c>
       <c r="D88" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B88,Sheet1!$A88)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E88" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B88,Sheet1!$A88)</f>
@@ -2491,10 +2840,14 @@
       </c>
       <c r="F88" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B88,Sheet1!$A88)</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G88" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4</v>
       </c>
@@ -2506,7 +2859,7 @@
       </c>
       <c r="D89" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B89,Sheet1!$A89)</f>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E89" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B89,Sheet1!$A89)</f>
@@ -2514,10 +2867,14 @@
       </c>
       <c r="F89" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B89,Sheet1!$A89)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5</v>
       </c>
@@ -2529,7 +2886,7 @@
       </c>
       <c r="D90" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B90,Sheet1!$A90)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E90" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B90,Sheet1!$A90)</f>
@@ -2537,10 +2894,14 @@
       </c>
       <c r="F90" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B90,Sheet1!$A90)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G90" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>6</v>
       </c>
@@ -2552,7 +2913,7 @@
       </c>
       <c r="D91" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B91,Sheet1!$A91)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E91" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B91,Sheet1!$A91)</f>
@@ -2560,10 +2921,14 @@
       </c>
       <c r="F91" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B91,Sheet1!$A91)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G91" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>7</v>
       </c>
@@ -2575,7 +2940,7 @@
       </c>
       <c r="D92" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B92,Sheet1!$A92)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E92" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B92,Sheet1!$A92)</f>
@@ -2583,10 +2948,14 @@
       </c>
       <c r="F92" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B92,Sheet1!$A92)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G92" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -2608,8 +2977,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B93,Sheet1!$A93)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -2631,8 +3004,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B94,Sheet1!$A94)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -2644,7 +3021,7 @@
       </c>
       <c r="D95" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B95,Sheet1!$A95)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E95" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B95,Sheet1!$A95)</f>
@@ -2652,10 +3029,14 @@
       </c>
       <c r="F95" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B95,Sheet1!$A95)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54</v>
+      </c>
+      <c r="G95" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -2667,7 +3048,7 @@
       </c>
       <c r="D96" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B96,Sheet1!$A96)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E96" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B96,Sheet1!$A96)</f>
@@ -2675,10 +3056,14 @@
       </c>
       <c r="F96" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B96,Sheet1!$A96)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G96" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>5</v>
       </c>
@@ -2690,7 +3075,7 @@
       </c>
       <c r="D97" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B97,Sheet1!$A97)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E97" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B97,Sheet1!$A97)</f>
@@ -2698,10 +3083,14 @@
       </c>
       <c r="F97" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B97,Sheet1!$A97)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G97" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>6</v>
       </c>
@@ -2713,7 +3102,7 @@
       </c>
       <c r="D98" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B98,Sheet1!$A98)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E98" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B98,Sheet1!$A98)</f>
@@ -2721,10 +3110,14 @@
       </c>
       <c r="F98" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B98,Sheet1!$A98)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+      <c r="G98" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>7</v>
       </c>
@@ -2736,7 +3129,7 @@
       </c>
       <c r="D99" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B99,Sheet1!$A99)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E99" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B99,Sheet1!$A99)</f>
@@ -2744,10 +3137,14 @@
       </c>
       <c r="F99" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B99,Sheet1!$A99)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+      <c r="G99" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -2759,7 +3156,7 @@
       </c>
       <c r="D100" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B100,Sheet1!$A100)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E100" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B100,Sheet1!$A100)</f>
@@ -2767,10 +3164,14 @@
       </c>
       <c r="F100" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B100,Sheet1!$A100)</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+      <c r="G100" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -2782,7 +3183,7 @@
       </c>
       <c r="D101" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B101,Sheet1!$A101)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E101" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B101,Sheet1!$A101)</f>
@@ -2790,10 +3191,14 @@
       </c>
       <c r="F101" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B101,Sheet1!$A101)</f>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="G101" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -2815,8 +3220,12 @@
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B102,Sheet1!$A102)</f>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -2828,7 +3237,7 @@
       </c>
       <c r="D103" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B103,Sheet1!$A103)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E103" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B103,Sheet1!$A103)</f>
@@ -2836,10 +3245,14 @@
       </c>
       <c r="F103" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B103,Sheet1!$A103)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G103" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -2851,7 +3264,7 @@
       </c>
       <c r="D104" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B104,Sheet1!$A104)</f>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E104" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B104,Sheet1!$A104)</f>
@@ -2859,10 +3272,14 @@
       </c>
       <c r="F104" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B104,Sheet1!$A104)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="G104" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -2874,7 +3291,7 @@
       </c>
       <c r="D105" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B105,Sheet1!$A105)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E105" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B105,Sheet1!$A105)</f>
@@ -2882,10 +3299,14 @@
       </c>
       <c r="F105" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B105,Sheet1!$A105)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+      <c r="G105" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -2897,7 +3318,7 @@
       </c>
       <c r="D106" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(D$1,"!$A$34")),Sheet1!$B106,Sheet1!$A106)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E106" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(E$1,"!$A$34")),Sheet1!$B106,Sheet1!$A106)</f>
@@ -2905,7 +3326,11 @@
       </c>
       <c r="F106" s="1">
         <f ca="1">OFFSET(INDIRECT(CONCATENATE(F$1,"!$A$34")),Sheet1!$B106,Sheet1!$A106)</f>
-        <v>0.4</v>
+        <v>0.38</v>
+      </c>
+      <c r="G106" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OTHER</v>
       </c>
     </row>
   </sheetData>
@@ -2917,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B49" sqref="B1:L49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,25 +3973,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C35" s="6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D35" s="6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E35" s="6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F35" s="6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H35" s="6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -3578,25 +4003,25 @@
         <v>2</v>
       </c>
       <c r="B36" s="7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C36" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D36" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F36" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G36" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -3608,25 +4033,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C37" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D37" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F37" s="8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G37" s="8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H37" s="8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -3644,19 +4069,19 @@
         <v>0.1</v>
       </c>
       <c r="D38" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="G38" s="8">
         <v>0.02</v>
       </c>
-      <c r="E38" s="8">
+      <c r="H38" s="8">
         <v>0.02</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3668,25 +4093,25 @@
         <v>5</v>
       </c>
       <c r="B39" s="7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="C39" s="8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="D39" s="8">
         <v>0.08</v>
       </c>
       <c r="E39" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="G39" s="8">
         <v>0.02</v>
       </c>
-      <c r="F39" s="8">
+      <c r="H39" s="8">
         <v>0.02</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -3893,7 +4318,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,16 +4379,16 @@
         <v>0.3</v>
       </c>
       <c r="E3" s="6">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F3" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3975,19 +4400,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="8">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="8">
         <v>0.3</v>
@@ -4005,22 +4430,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D5" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="8">
         <v>0.2</v>
@@ -4035,25 +4460,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="8">
         <v>0.2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H6" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -4065,13 +4490,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E7" s="8">
         <v>0.3</v>
@@ -4080,10 +4505,10 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -4933,19 +5358,19 @@
       </c>
       <c r="E3" s="6">
         <f>1-(Sand!E3+Silt!E3)</f>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="6">
         <f>1-(Sand!F3+Silt!F3)</f>
-        <v>0.19999999999999996</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="G3" s="6">
         <f>1-(Sand!G3+Silt!G3)</f>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
         <f>1-(Sand!H3+Silt!H3)</f>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4958,23 +5383,23 @@
       </c>
       <c r="B4" s="7">
         <f>1-(Sand!B4+Silt!B4)</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C4" s="8">
         <f>1-(Sand!C4+Silt!C4)</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D4" s="8">
         <f>1-(Sand!D4+Silt!D4)</f>
-        <v>0.39999999999999991</v>
+        <v>0.35</v>
       </c>
       <c r="E4" s="8">
         <f>1-(Sand!E4+Silt!E4)</f>
-        <v>0.30000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F4" s="8">
         <f>1-(Sand!F4+Silt!F4)</f>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="8">
         <f>1-(Sand!G4+Silt!G4)</f>
@@ -4995,27 +5420,27 @@
       </c>
       <c r="B5" s="7">
         <f>1-(Sand!B5+Silt!B5)</f>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5" s="8">
         <f>1-(Sand!C5+Silt!C5)</f>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D5" s="8">
         <f>1-(Sand!D5+Silt!D5)</f>
-        <v>0.5</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E5" s="8">
         <f>1-(Sand!E5+Silt!E5)</f>
-        <v>0.30000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F5" s="8">
         <f>1-(Sand!F5+Silt!F5)</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G5" s="8">
         <f>1-(Sand!G5+Silt!G5)</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="8">
         <f>1-(Sand!H5+Silt!H5)</f>
@@ -5032,19 +5457,19 @@
       </c>
       <c r="B6" s="7">
         <f>1-(Sand!B6+Silt!B6)</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C6" s="8">
         <f>1-(Sand!C6+Silt!C6)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="8">
         <f>1-(Sand!D6+Silt!D6)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="8">
         <f>1-(Sand!E6+Silt!E6)</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F6" s="8">
         <f>1-(Sand!F6+Silt!F6)</f>
@@ -5052,11 +5477,11 @@
       </c>
       <c r="G6" s="8">
         <f>1-(Sand!G6+Silt!G6)</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H6" s="8">
         <f>1-(Sand!H6+Silt!H6)</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5069,15 +5494,15 @@
       </c>
       <c r="B7" s="7">
         <f>1-(Sand!B7+Silt!B7)</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="8">
         <f>1-(Sand!C7+Silt!C7)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="8">
         <f>1-(Sand!D7+Silt!D7)</f>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E7" s="8">
         <f>1-(Sand!E7+Silt!E7)</f>
@@ -5089,11 +5514,11 @@
       </c>
       <c r="G7" s="8">
         <f>1-(Sand!G7+Silt!G7)</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H7" s="8">
         <f>1-(Sand!H7+Silt!H7)</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5569,31 +5994,31 @@
       </c>
       <c r="B35" s="5">
         <f>1-(Sand!B35+Silt!B35)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C35" s="6">
         <f>1-(Sand!C35+Silt!C35)</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="D35" s="6">
         <f>1-(Sand!D35+Silt!D35)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E35" s="6">
         <f>1-(Sand!E35+Silt!E35)</f>
-        <v>0.5</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F35" s="6">
         <f>1-(Sand!F35+Silt!F35)</f>
-        <v>0.57000000000000006</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G35" s="6">
         <f>1-(Sand!G35+Silt!G35)</f>
-        <v>0.57000000000000006</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H35" s="6">
         <f>1-(Sand!H35+Silt!H35)</f>
-        <v>0.57000000000000006</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -5606,31 +6031,31 @@
       </c>
       <c r="B36" s="7">
         <f>1-(Sand!B36+Silt!B36)</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C36" s="8">
         <f>1-(Sand!C36+Silt!C36)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="D36" s="8">
         <f>1-(Sand!D36+Silt!D36)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E36" s="8">
         <f>1-(Sand!E36+Silt!E36)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="8">
         <f>1-(Sand!F36+Silt!F36)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="G36" s="8">
         <f>1-(Sand!G36+Silt!G36)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="8">
         <f>1-(Sand!H36+Silt!H36)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -5643,31 +6068,31 @@
       </c>
       <c r="B37" s="7">
         <f>1-(Sand!B37+Silt!B37)</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C37" s="8">
         <f>1-(Sand!C37+Silt!C37)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="8">
         <f>1-(Sand!D37+Silt!D37)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="8">
         <f>1-(Sand!E37+Silt!E37)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="8">
         <f>1-(Sand!F37+Silt!F37)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="G37" s="8">
         <f>1-(Sand!G37+Silt!G37)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="H37" s="8">
         <f>1-(Sand!H37+Silt!H37)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -5688,23 +6113,23 @@
       </c>
       <c r="D38" s="8">
         <f>1-(Sand!D38+Silt!D38)</f>
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="E38" s="8">
         <f>1-(Sand!E38+Silt!E38)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="F38" s="8">
         <f>1-(Sand!F38+Silt!F38)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="G38" s="8">
         <f>1-(Sand!G38+Silt!G38)</f>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="H38" s="8">
         <f>1-(Sand!H38+Silt!H38)</f>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -5717,11 +6142,11 @@
       </c>
       <c r="B39" s="7">
         <f>1-(Sand!B39+Silt!B39)</f>
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C39" s="8">
         <f>1-(Sand!C39+Silt!C39)</f>
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="D39" s="8">
         <f>1-(Sand!D39+Silt!D39)</f>
@@ -5729,19 +6154,19 @@
       </c>
       <c r="E39" s="8">
         <f>1-(Sand!E39+Silt!E39)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="F39" s="8">
         <f>1-(Sand!F39+Silt!F39)</f>
-        <v>0.48</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="G39" s="8">
         <f>1-(Sand!G39+Silt!G39)</f>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="H39" s="8">
         <f>1-(Sand!H39+Silt!H39)</f>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>

--- a/Soil Teating.xlsx
+++ b/Soil Teating.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G2:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,8 +521,8 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G2" s="9" t="str">
-        <f ca="1">IF(AND(E2&gt;0.8,D2&lt;0.2,F2&lt;0.12),"SILT",IF(AND(E2&gt;0.5,D2&lt;0.5,F2&lt;0.28),"SILTY LOAM",IF(AND(E2&lt;0.1,D2&gt;0.86,F2&lt;0.1),"SAND",IF(AND(E2&lt;0.25,D2&gt;0.74,F2&lt;0.15),"LOAMY SAND",IF(AND(E2&lt;0.4,D2&gt;0.45,F2&gt;0.4),"CLAY",IF(AND(E2&lt;0.2,D2&gt;0.45,F2&gt;0.35),"SANDY CLAY", IF(AND(E2&lt;0.28,D2&gt;0.45,F2&gt;0.2),"SANDY LOAM", IF(AND(E2&gt;0.15,D2&gt;0.48,F2&gt;0.28),"CLAY LOAM",IF(AND(E2&gt;0.27,D2&gt;0.5,F2&lt;0.28),"MEDIUM LOAM",IF(AND(E2&lt;0.5,D2&gt;0.45,F2&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
-        <v>SANDY LOAM</v>
+        <f t="shared" ref="G2:G65" ca="1" si="0">IF(AND(E2&gt;0.8,D2&lt;0.2,F2&lt;0.12),"Silt",IF(AND(E2&gt;0.5,D2&lt;0.5,F2&lt;0.28),"Silty Loam",IF(AND(E2&lt;0.15,D2&gt;0.86,F2&lt;0.1),"Sand",IF(AND(E2&lt;0.25,D2&gt;0.74,F2&lt;0.15),"Loamy Sand",IF(AND(E2&lt;0.4,D2&gt;0.45,F2&lt;0.45),"Clay",IF(AND(E2&lt;0.2,D2&gt;0.45,F2&gt;0.35),"Sandy Clay", IF(AND(D2&gt;0.2,D2&lt;0.46,F2&gt;0.28),"Clay Loam",IF(D2&lt;0.2,"Silty Clay Loam", IF(AND(E2&lt;0.28,F2&gt;0.2),"Sandy Clay Loam", IF(AND(E2&gt;0.27,D2&lt;0.53,F2&gt;0.07),"Medium Loam",IF(AND(E2&lt;0.5,D2&gt;0.44,F2&lt;0.2),"Sandy Loam", "OTHER")))))))))))</f>
+        <v>Clay</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -548,8 +548,8 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G66" ca="1" si="0">IF(AND(E3&gt;0.8,D3&lt;0.2,F3&lt;0.12),"SILT",IF(AND(E3&gt;0.5,D3&lt;0.5,F3&lt;0.28),"SILTY LOAM",IF(AND(E3&lt;0.1,D3&gt;0.86,F3&lt;0.1),"SAND",IF(AND(E3&lt;0.25,D3&gt;0.74,F3&lt;0.15),"LOAMY SAND",IF(AND(E3&lt;0.4,D3&gt;0.45,F3&gt;0.4),"CLAY",IF(AND(E3&lt;0.2,D3&gt;0.45,F3&gt;0.35),"SANDY CLAY", IF(AND(E3&lt;0.28,D3&gt;0.45,F3&gt;0.2),"SANDY LOAM", IF(AND(E3&gt;0.15,D3&gt;0.48,F3&gt;0.28),"CLAY LOAM",IF(AND(E3&gt;0.27,D3&gt;0.5,F3&lt;0.28),"MEDIUM LOAM",IF(AND(E3&lt;0.5,D3&gt;0.45,F3&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
-        <v>SANDY LOAM</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Clay</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -602,8 +602,8 @@
         <v>0.25</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <f ca="1">IF(AND(E5&gt;0.8,D5&lt;0.2,F5&lt;0.12),"Silt",IF(AND(E5&gt;0.5,D5&lt;0.5,F5&lt;0.28),"Silty Loam",IF(AND(E5&lt;0.15,D5&gt;0.86,F5&lt;0.1),"Sand",IF(AND(E5&lt;0.25,D5&gt;0.74,F5&lt;0.15),"Loamy Sand",IF(AND(E5&lt;0.4,D5&gt;0.45,F5&lt;0.45),"Clay",IF(AND(E5&lt;0.2,D5&gt;0.45,F5&gt;0.35),"Sandy Clay", IF(AND(D5&gt;0.2,D5&lt;0.46,F5&gt;0.28),"Clay Loam",IF(D5&lt;0.2,"Silty Clay Loam", IF(AND(E5&lt;0.28,F5&gt;0.2),"Sandy Clay Loam", IF(AND(E5&gt;0.27,D5&lt;0.53,F5&gt;0.07),"Medium Loam",IF(AND(E5&lt;0.5,D5&gt;0.44,F5&lt;0.2),"Sandy Loam", "OTHER")))))))))))</f>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SILTY LOAM</v>
+        <v>Silty Loam</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SILTY LOAM</v>
+        <v>Silty Loam</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SANDY LOAM</v>
+        <v>Clay</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SANDY LOAM</v>
+        <v>Clay</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G52" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Clay Loam</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G53" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="G54" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="G55" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G56" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G57" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="G58" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G59" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="G60" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G61" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="G62" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G63" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="G64" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G65" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2249,8 +2249,8 @@
         <v>0.8</v>
       </c>
       <c r="G66" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>OTHER</v>
+        <f t="shared" ref="G66:G106" ca="1" si="1">IF(AND(E66&gt;0.8,D66&lt;0.2,F66&lt;0.12),"Silt",IF(AND(E66&gt;0.5,D66&lt;0.5,F66&lt;0.28),"Silty Loam",IF(AND(E66&lt;0.15,D66&gt;0.86,F66&lt;0.1),"Sand",IF(AND(E66&lt;0.25,D66&gt;0.74,F66&lt;0.15),"Loamy Sand",IF(AND(E66&lt;0.4,D66&gt;0.45,F66&lt;0.45),"Clay",IF(AND(E66&lt;0.2,D66&gt;0.45,F66&gt;0.35),"Sandy Clay", IF(AND(D66&gt;0.2,D66&lt;0.46,F66&gt;0.28),"Clay Loam",IF(D66&lt;0.2,"Silty Clay Loam", IF(AND(E66&lt;0.28,F66&gt;0.2),"Sandy Clay Loam", IF(AND(E66&gt;0.27,D66&lt;0.53,F66&gt;0.07),"Medium Loam",IF(AND(E66&lt;0.5,D66&gt;0.44,F66&lt;0.2),"Sandy Loam", "OTHER")))))))))))</f>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2276,8 +2276,8 @@
         <v>0.6</v>
       </c>
       <c r="G67" s="9" t="str">
-        <f t="shared" ref="G67:G106" ca="1" si="1">IF(AND(E67&gt;0.8,D67&lt;0.2,F67&lt;0.12),"SILT",IF(AND(E67&gt;0.5,D67&lt;0.5,F67&lt;0.28),"SILTY LOAM",IF(AND(E67&lt;0.1,D67&gt;0.86,F67&lt;0.1),"SAND",IF(AND(E67&lt;0.25,D67&gt;0.74,F67&lt;0.15),"LOAMY SAND",IF(AND(E67&lt;0.4,D67&gt;0.45,F67&gt;0.4),"CLAY",IF(AND(E67&lt;0.2,D67&gt;0.45,F67&gt;0.35),"SANDY CLAY", IF(AND(E67&lt;0.28,D67&gt;0.45,F67&gt;0.2),"SANDY LOAM", IF(AND(E67&gt;0.15,D67&gt;0.48,F67&gt;0.28),"CLAY LOAM",IF(AND(E67&gt;0.27,D67&gt;0.5,F67&lt;0.28),"MEDIUM LOAM",IF(AND(E67&lt;0.5,D67&gt;0.45,F67&lt;0.55),"SANDY LOAM", "OTHER"))))))))))</f>
-        <v>OTHER</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G68" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="G69" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="G70" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G71" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="G72" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G73" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G74" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="G75" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Medium Loam</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="G76" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="G77" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G78" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="G79" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="G80" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G81" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="G82" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G83" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="G84" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G85" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="G86" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G87" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Sandy Clay Loam</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G88" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G89" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G90" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G91" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="G92" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G93" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="G94" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="G95" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="G96" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G97" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="G98" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="G99" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="G100" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G101" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="G102" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="G103" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="G104" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G105" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="G106" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTHER</v>
+        <v>Silty Clay Loam</v>
       </c>
     </row>
   </sheetData>

--- a/Soil Teating.xlsx
+++ b/Soil Teating.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G2:G106"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
